--- a/report_template/biweekForm.xlsx
+++ b/report_template/biweekForm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -115,19 +115,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.執行零點及全幅校正時，若其偏移率未超過標準(1%F.S. / 7% )，不可進行零點及全幅的調整(re-set)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.全幅偏移率= (全幅校正後儀器讀值-全幅值) / 全幅值 (全幅標準值SO2、NOx、NO、O3為400，CO為 40、CH4、NMHC為20)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.SO2、NOx、NO、CO、O3、CH4、NMHC SLOPE 標準皆為1.0±0.3。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.Offset：SO2 標準為&lt; 250內。NOx、NO 標準為-10 ~ 150內。CO 標準為-10~125內。O3 標準為0.0±5。CH4 標準為0.0±1.5。NMHC 標準為0.0±1.5。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -294,6 +282,18 @@
   </si>
   <si>
     <t>0.20 ppm</t>
+  </si>
+  <si>
+    <t>2.執行零點及全幅校正時，若其偏移率未超過標準(1%F.S. / 5% )，不可進行零點及全幅的調整(re-set)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.SO2標準為1.0±0.5，NOx、NO、CO、O3、CH4、NMHC SLOPE 標準皆為1.0±0.3。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.Offset：SO2 標準為&lt; 250內。NOx、NO 標準為-50 ~ 150內。CO 標準為-10~125內。O3 標準為0.0±5。CH4 標準為0.0±1.5。NMHC 標準為0.0±1.5。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -675,60 +675,6 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -772,6 +718,60 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1087,596 +1087,606 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37:K37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="12" width="10.28515625" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="9" max="12" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="24" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="24" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="24"/>
-    </row>
-    <row r="4" spans="1:12" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-    </row>
-    <row r="6" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
+    </row>
+    <row r="27" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="25" t="s">
+    </row>
+    <row r="30" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="25" t="s">
+    </row>
+    <row r="34" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="35" spans="1:12" s="8" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+    </row>
+    <row r="36" spans="1:12" s="8" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:12" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="1:12" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="1:12" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="26" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-    </row>
-    <row r="36" spans="1:12" s="26" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="35"/>
-    </row>
-    <row r="38" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="20" t="s">
+      <c r="I38" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="35"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="B21:L26"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="I17:L17"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="I38:K38"/>
@@ -1693,16 +1703,6 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="B21:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.55000000000000004" bottom="0.59" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1717,7 +1717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report_template/biweekForm.xlsx
+++ b/report_template/biweekForm.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -719,59 +719,59 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -874,6 +874,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -909,6 +926,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1087,73 +1121,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" customWidth="1"/>
-    <col min="9" max="12" width="10.26953125" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1213,7 +1248,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1235,7 +1270,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1257,7 +1292,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1279,7 +1314,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -1301,7 +1336,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -1323,7 +1358,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -1345,299 +1380,299 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-    </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="22" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="22" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="22" t="s">
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="22" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-    </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+    </row>
+    <row r="21" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
-    </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
-    </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
-    </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
+    </row>
+    <row r="27" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="8" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="8" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
     </row>
-    <row r="36" spans="1:12" s="8" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:12" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" s="8" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -1648,45 +1683,35 @@
       <c r="H37" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
       <c r="L37" s="17"/>
     </row>
-    <row r="38" spans="1:12" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I38" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
       <c r="L38" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="B21:L26"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="I17:L17"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="I38:K38"/>
@@ -1703,6 +1728,16 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="B21:L26"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.55000000000000004" bottom="0.59" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1717,7 +1752,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report_template/biweekForm.xlsx
+++ b/report_template/biweekForm.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AQM\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>測站名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,14 +191,6 @@
       </rPr>
       <t>(ppm)</t>
     </r>
-  </si>
-  <si>
-    <t>1. β-Count檢查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 以標準膜片進行ZERO/SPAN校正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3. 確認續採樣濾點為乾淨濾點</t>
@@ -295,12 +287,38 @@
     <t>6.Offset：SO2 標準為&lt; 250內。NOx、NO 標準為-50 ~ 150內。CO 標準為-10~125內。O3 標準為0.0±5。CH4 標準為0.0±1.5。NMHC 標準為0.0±1.5。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. β-Count檢查    PM10:               TSP:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 以標準膜片進行檢查 PM10:    μg/cm2 TSP:    μg/cm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>標準</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PM10:    μg/cm2(±5% )TSP:    μg/cm2(±5%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標準≧10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -467,6 +485,12 @@
       <sz val="11"/>
       <name val="標楷體"/>
       <family val="4"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -492,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -645,6 +669,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -673,7 +734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -772,6 +833,21 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -874,23 +950,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -926,23 +985,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1122,7 +1164,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L1:L1048576"/>
+      <selection activeCell="I17" sqref="I17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1232,16 +1274,16 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -1254,16 +1296,16 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1276,16 +1318,16 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1298,16 +1340,16 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1320,16 +1362,16 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1342,16 +1384,16 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1364,16 +1406,16 @@
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1394,12 +1436,12 @@
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
@@ -1407,17 +1449,19 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="32" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -1425,17 +1469,19 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -1443,7 +1489,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -1453,7 +1499,7 @@
     <row r="16" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -1461,7 +1507,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -1481,7 +1527,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -1501,12 +1547,12 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
@@ -1519,7 +1565,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -1545,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -1630,17 +1676,17 @@
     </row>
     <row r="27" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1660,12 +1706,12 @@
     </row>
     <row r="33" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="8" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,7 +1727,7 @@
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
       <c r="H37" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
@@ -1690,10 +1736,10 @@
     </row>
     <row r="38" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
@@ -1701,10 +1747,10 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>

--- a/report_template/biweekForm.xlsx
+++ b/report_template/biweekForm.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webApp\AQM\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC00842D-9BDE-4C49-A775-AA4585F12537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="-336" yWindow="2568" windowWidth="23040" windowHeight="8496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="雙週保養表單" sheetId="1" r:id="rId1"/>
@@ -273,9 +274,6 @@
     <t>0.10 ppm</t>
   </si>
   <si>
-    <t>0.20 ppm</t>
-  </si>
-  <si>
     <t>2.執行零點及全幅校正時，若其偏移率未超過標準(1%F.S. / 5% )，不可進行零點及全幅的調整(re-set)。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,11 +311,14 @@
     <t>標準≧10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2.00 ppb</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -780,66 +781,27 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -849,17 +811,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="?" xfId="7"/>
+    <cellStyle name="?" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="㼿" xfId="4"/>
-    <cellStyle name="㼿?" xfId="5"/>
-    <cellStyle name="㼿‿‿㼿?" xfId="1"/>
-    <cellStyle name="㼿㼠" xfId="3"/>
-    <cellStyle name="㼿㼿" xfId="8"/>
-    <cellStyle name="㼿㼿?" xfId="6"/>
-    <cellStyle name="㼿㼿㼿" xfId="2"/>
+    <cellStyle name="㼿" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="㼿?" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="㼿‿‿㼿?" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="㼿㼠" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="㼿㼿" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="㼿㼿?" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="㼿㼿㼿" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -950,6 +951,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -985,6 +1003,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1160,77 +1195,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:L17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="11" width="10.28515625" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="11" width="10.33203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1268,13 +1303,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>41</v>
@@ -1290,7 +1325,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1312,13 +1347,13 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>41</v>
@@ -1334,7 +1369,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1356,7 +1391,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -1378,13 +1413,13 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>41</v>
@@ -1400,7 +1435,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -1422,72 +1457,72 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-    </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
-    </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="32" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
-    </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="32" t="s">
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="13" t="s">
         <v>41</v>
       </c>
@@ -1496,16 +1531,16 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="32" t="s">
+    <row r="16" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="13" t="s">
         <v>41</v>
       </c>
@@ -1514,18 +1549,18 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="13" t="s">
         <v>41</v>
       </c>
@@ -1534,36 +1569,36 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-    </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="32" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="13" t="s">
         <v>41</v>
       </c>
@@ -1572,107 +1607,107 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+    <row r="20" spans="1:12" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+    </row>
+    <row r="21" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="28"/>
-    </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="28"/>
-    </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="28"/>
-    </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
-    </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
+    </row>
+    <row r="22" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="23" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
+    </row>
+    <row r="24" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="39"/>
+    </row>
+    <row r="25" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
+    </row>
+    <row r="26" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1686,7 +1721,7 @@
     </row>
     <row r="29" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1706,19 +1741,19 @@
     </row>
     <row r="33" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="8" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="8" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
     </row>
-    <row r="36" spans="1:12" s="8" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="8" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:12" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -1729,35 +1764,45 @@
       <c r="H37" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="17"/>
     </row>
-    <row r="38" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A38" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="B21:L26"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="I17:L17"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="I38:K38"/>
@@ -1774,16 +1819,6 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="B21:L26"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.55000000000000004" bottom="0.59" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1793,12 +1828,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
